--- a/UI/data/demo_table_data.xlsx
+++ b/UI/data/demo_table_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\recent project work\Misc-project\KUET LLM\KUET LLM data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andromeda\Desktop\LLM-based-QA-chatbot-builder\UI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECC1C32-E6D8-4FFB-B2EE-3913CAFAF08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE106BC2-2BD1-43F5-85F6-79836B8AC15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="972" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="2040" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Prompt</t>
-  </si>
-  <si>
-    <t>Reply</t>
-  </si>
-  <si>
     <t>What is the history and evolution of KUET?</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>Two faculties at KUET offer both Undergraduate (UG) and Postgraduate (PG) degrees. These are the Faculty of Civil Engineering and the Faculty of Electrical and Electronic Engineering. Students in these faculties have the flexibility to pursue various degree programs based on their academic goals and interests.</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
   </si>
 </sst>
 </file>
@@ -430,89 +430,89 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
